--- a/do.xlsx
+++ b/do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Desktop\Manual\SP\Team-Collaboration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B045D36-8645-458C-95CA-9596BAEC2A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179CE715-7933-4271-A4BC-2C8CECE014E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMART" sheetId="1" r:id="rId1"/>
@@ -43723,8 +43723,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43764,8 +43764,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -45584,10 +45624,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45626,46 +45666,6 @@
       </c>
       <c r="H1" s="21" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/do.xlsx
+++ b/do.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob08\Desktop\Team-Collaboration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Desktop\Manual\SP\Team-Collaboration\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A867C3C2-9DF4-42AC-8637-6293964D2480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMART" sheetId="1" r:id="rId1"/>
@@ -25,14 +26,17 @@
     <sheet name="ATL-SAV" sheetId="11" r:id="rId11"/>
     <sheet name="Acct" sheetId="12" r:id="rId12"/>
     <sheet name="PICK UP" sheetId="13" r:id="rId13"/>
-    <sheet name="OTHER" sheetId="14" r:id="rId14"/>
+    <sheet name="RAIL" sheetId="16" r:id="rId14"/>
+    <sheet name="RETURN" sheetId="15" r:id="rId15"/>
+    <sheet name="Price" sheetId="17" r:id="rId16"/>
+    <sheet name="OTHER" sheetId="14" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="379">
   <si>
     <t>DATE</t>
   </si>
@@ -879,9 +883,6 @@
     <t>NYKU4711731</t>
   </si>
   <si>
-    <t>PENDING</t>
-  </si>
-  <si>
     <t>FDCU0436648</t>
   </si>
   <si>
@@ -898,9 +899,6 @@
   </si>
   <si>
     <t>TGHU6761447</t>
-  </si>
-  <si>
-    <t>NOT READY</t>
   </si>
   <si>
     <t>FILE#</t>
@@ -1202,16 +1200,82 @@
   <si>
     <t>2,464.61 CFT&amp;#10;</t>
   </si>
+  <si>
+    <t>TCLU9277139</t>
+  </si>
+  <si>
+    <t>KKFU8035758</t>
+  </si>
+  <si>
+    <t>ZCSU7983890</t>
+  </si>
+  <si>
+    <t>EITU1944544</t>
+  </si>
+  <si>
+    <t>EGHU9587102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU#1388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU#1072 </t>
+  </si>
+  <si>
+    <t>live-unload at 1:00PM to SANFORD, FL</t>
+  </si>
+  <si>
+    <t>live-unload 8:00AM to Sandford, FL</t>
+  </si>
+  <si>
+    <t>TRLU7572160</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>CTN#</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>PU# 4个数字是NS</t>
+  </si>
+  <si>
+    <t>PU# 8个数字是CSX</t>
+  </si>
+  <si>
+    <t>提还65</t>
+  </si>
+  <si>
+    <t>超重司机100</t>
+  </si>
+  <si>
+    <t>跑亚特兰大 300</t>
+  </si>
+  <si>
+    <t>跑外州0。6 mile</t>
+  </si>
+  <si>
+    <t>亮哥</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,8 +1346,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,8 +1392,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1351,12 +1443,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1494,22 +1612,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1977,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2570,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2631,7 +2769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2702,7 +2840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2774,445 +2912,766 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="21" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D2" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D3" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D4" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D5" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D6" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D7" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D8" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D9" s="44">
+        <v>45090</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59">
+        <v>45091</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D11" s="43">
+        <v>45091</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D12" s="43">
+        <v>45091</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D13" s="43">
+        <v>45091</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D14" s="43">
+        <v>45091</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D15" s="43">
+        <v>45091</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="43">
+        <v>45091</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D17" s="43">
+        <v>45091</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:22" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59">
+        <v>45092</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="43">
+      <c r="C19" s="56">
         <v>45092</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D19" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="36"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+    </row>
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="C20" s="43">
+        <v>45093</v>
+      </c>
+      <c r="D20" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="36"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="36"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+    </row>
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="43">
+        <v>45096</v>
+      </c>
+      <c r="D22" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="36"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="43">
+        <v>45096</v>
+      </c>
+      <c r="D23" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="36"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="43">
+        <v>45096</v>
+      </c>
+      <c r="D24" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="36"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="56">
+        <v>45092</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="43">
+      <c r="E25" s="55"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="56">
+        <v>45092</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:22" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
         <v>45093</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="43">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="57"/>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="43">
         <v>45093</v>
       </c>
-      <c r="C4" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="43">
+      <c r="D28" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="43">
         <v>45093</v>
       </c>
-      <c r="C5" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="43">
+      <c r="D29" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="43">
         <v>45093</v>
       </c>
-      <c r="C6" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="43">
+      <c r="D30" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="43">
         <v>45093</v>
       </c>
-      <c r="C7" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C8" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C9" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C10" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C11" s="44">
-        <v>45090</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C12" s="43">
-        <v>45091</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C13" s="43">
-        <v>45091</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C14" s="43">
-        <v>45091</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C15" s="43">
-        <v>45091</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C16" s="43">
-        <v>45091</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="43">
-        <v>45091</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C18" s="43">
-        <v>45091</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="43">
+      <c r="D31" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:22" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59">
+        <v>45094</v>
+      </c>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="57"/>
+    </row>
+    <row r="33" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="43">
+        <v>45094</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="43">
+        <v>45097</v>
+      </c>
+      <c r="D34" s="28">
         <v>45096</v>
       </c>
-      <c r="C19" s="43">
+      <c r="E34" s="54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="43">
+        <v>45097</v>
+      </c>
+      <c r="D35" s="43">
+        <v>45097</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="43">
+        <v>45097</v>
+      </c>
+      <c r="D36" s="43">
+        <v>45097</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="43">
+        <v>45097</v>
+      </c>
+      <c r="D37" s="43">
+        <v>45097</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C083187-B5F7-4EFB-B865-71320B124688}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="50"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="56">
         <v>45092</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="43">
+      <c r="D2" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="56">
+        <v>45092</v>
+      </c>
+      <c r="D3" s="43">
+        <v>45092</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:9" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="43">
         <v>45096</v>
       </c>
-      <c r="C20" s="43">
+      <c r="D4" s="43">
         <v>45092</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="43">
+      <c r="E4" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="43">
         <v>45096</v>
       </c>
-      <c r="C21" s="43">
+      <c r="D5" s="43">
         <v>45092</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="43">
-        <v>45092</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="43">
-        <v>45092</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B25" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="43">
-        <v>45093</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="43">
-        <v>45094</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="43">
-        <v>45097</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="43">
-        <v>45097</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E5" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="57"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA578C6F-AFA2-4C05-A478-8A5A73E2F389}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4112734A-118B-4B1A-973F-E496C5E31ECB}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3257,52 +3716,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>246</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>1</v>
@@ -3311,31 +3770,31 @@
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>246</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,64 +3802,64 @@
         <v>45089</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="K2" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="M2" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="K2" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="L2" s="45" t="s">
+      <c r="O2" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="N2" s="45" t="s">
+      <c r="P2" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="Q2" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="P2" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q2" s="45" t="s">
-        <v>290</v>
-      </c>
       <c r="R2" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U2" s="45" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V2" s="45" t="s">
         <v>138</v>
@@ -3409,19 +3868,19 @@
         <v>138</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y2" s="45" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="AA2" s="45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB2" s="45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -3429,64 +3888,64 @@
         <v>45089</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="K3" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="J3" s="45" t="s">
+      <c r="M3" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O3" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="K3" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="L3" s="45" t="s">
+      <c r="P3" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="M3" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="P3" s="45" t="s">
-        <v>304</v>
-      </c>
       <c r="Q3" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R3" s="45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S3" s="45" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="V3" s="45" t="s">
         <v>138</v>
@@ -3495,19 +3954,19 @@
         <v>138</v>
       </c>
       <c r="X3" s="45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y3" s="45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z3" s="45" t="s">
         <v>30</v>
       </c>
       <c r="AA3" s="45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB3" s="45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -3515,64 +3974,64 @@
         <v>45089</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="K4" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="M4" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O4" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>317</v>
-      </c>
       <c r="P4" s="45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R4" s="45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S4" s="45" t="s">
         <v>11</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="U4" s="45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="V4" s="45" t="s">
         <v>138</v>
@@ -3581,19 +4040,19 @@
         <v>138</v>
       </c>
       <c r="X4" s="45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y4" s="45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z4" s="45" t="s">
         <v>33</v>
       </c>
       <c r="AA4" s="45" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AB4" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -3601,64 +4060,64 @@
         <v>45089</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="J5" s="45" t="s">
+      <c r="M5" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O5" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="45" t="s">
+      <c r="P5" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>332</v>
-      </c>
       <c r="Q5" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R5" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S5" s="45" t="s">
         <v>11</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V5" s="45" t="s">
         <v>138</v>
@@ -3667,19 +4126,19 @@
         <v>138</v>
       </c>
       <c r="X5" s="45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Y5" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Z5" s="45" t="s">
         <v>35</v>
       </c>
       <c r="AA5" s="45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AB5" s="45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -3687,64 +4146,64 @@
         <v>45089</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="K6" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="I6" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="L6" s="45" t="s">
+      <c r="M6" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="P6" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="M6" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="N6" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>332</v>
-      </c>
       <c r="Q6" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R6" s="45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S6" s="45" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="U6" s="45" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V6" s="45" t="s">
         <v>138</v>
@@ -3753,19 +4212,19 @@
         <v>138</v>
       </c>
       <c r="X6" s="45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Y6" s="45" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Z6" s="45" t="s">
         <v>37</v>
       </c>
       <c r="AA6" s="45" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AB6" s="45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -3773,64 +4232,64 @@
         <v>45089</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="K7" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="L7" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="K7" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="L7" s="45" t="s">
+      <c r="M7" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="P7" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="M7" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>332</v>
-      </c>
       <c r="Q7" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R7" s="45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S7" s="45" t="s">
         <v>11</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U7" s="45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V7" s="45" t="s">
         <v>138</v>
@@ -3839,19 +4298,19 @@
         <v>138</v>
       </c>
       <c r="X7" s="45" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Y7" s="45" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Z7" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA7" s="45" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AB7" s="45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,7 +4478,7 @@
         <v>45090</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>18</v>
@@ -4061,7 +4520,7 @@
         <v>45090</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>18</v>
@@ -4103,7 +4562,7 @@
         <v>45090</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>18</v>
@@ -4145,7 +4604,7 @@
         <v>45090</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
@@ -4187,7 +4646,7 @@
         <v>45090</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>18</v>
@@ -4229,7 +4688,7 @@
         <v>45090</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>18</v>
@@ -33738,14 +34197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B7:B9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34263,7 +34722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -44262,7 +44721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -44340,7 +44799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44394,14 +44853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45732,14 +46191,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A10:A22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46000,7 +46459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -46554,7 +47013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
